--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1145408.630077856</v>
+        <v>-1146206.997515672</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>244.9625436714603</v>
       </c>
       <c r="D11" t="n">
-        <v>234.5821807471161</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>249.7075152099872</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G11" t="n">
-        <v>165.6220163246029</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>210.7336715177291</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772385</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360338</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>98.63966577724236</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.34957360286252</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>49.00303191991868</v>
@@ -1458,7 +1458,7 @@
         <v>34.01088169969152</v>
       </c>
       <c r="F12" t="n">
-        <v>59.13286169907597</v>
+        <v>21.48368007606699</v>
       </c>
       <c r="G12" t="n">
         <v>135.7417345196995</v>
@@ -1506,16 +1506,16 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.8861790321728</v>
       </c>
       <c r="W12" t="n">
-        <v>127.9667947425177</v>
+        <v>165.6159763655268</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.43907760099596</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.64859941110372</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>26.98301450703705</v>
       </c>
       <c r="E13" t="n">
-        <v>20.82378795359973</v>
+        <v>24.95207216571687</v>
       </c>
       <c r="F13" t="n">
         <v>24.13646940232219</v>
@@ -1546,7 +1546,7 @@
         <v>37.51344541500131</v>
       </c>
       <c r="I13" t="n">
-        <v>24.6394398493067</v>
+        <v>20.51115563719006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.75808757999049</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S13" t="n">
         <v>96.22237133206652</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.6938579839128</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.9625436714603</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.5821807471161</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478052</v>
+        <v>261.0954837478051</v>
       </c>
       <c r="F14" t="n">
-        <v>16.25044939283981</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.306137003043</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.7336715177292</v>
+        <v>210.7336715177291</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772389</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360342</v>
+        <v>3.144207437444006</v>
       </c>
       <c r="T14" t="n">
-        <v>98.6396657772424</v>
+        <v>98.63966577724236</v>
       </c>
       <c r="U14" t="n">
         <v>129.4131254575977</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.510669515037</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.8390471236871</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.6645197437535</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.34957360286256</v>
+        <v>43.34957360286252</v>
       </c>
       <c r="C15" t="n">
-        <v>49.00303191991873</v>
+        <v>49.00303191991868</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0898715671633</v>
+        <v>24.08987156716326</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01088169969157</v>
+        <v>34.01088169969152</v>
       </c>
       <c r="F15" t="n">
-        <v>21.48368007606703</v>
+        <v>21.48368007606699</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7417345196995</v>
+        <v>13.71918251221725</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I15" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7333265046506</v>
+        <v>93.23204372611868</v>
       </c>
       <c r="T15" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U15" t="n">
-        <v>140.265288545534</v>
+        <v>102.6161069225253</v>
       </c>
       <c r="V15" t="n">
-        <v>109.8861790321729</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.93285527108404</v>
+        <v>58.0611394832015</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372007</v>
+        <v>45.31400092372003</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9830145070371</v>
+        <v>26.98301450703705</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95207216571691</v>
+        <v>24.95207216571687</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232223</v>
+        <v>24.13646940232219</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341552</v>
+        <v>45.63105716341548</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500135</v>
+        <v>37.51344541500131</v>
       </c>
       <c r="I16" t="n">
-        <v>24.63943984930674</v>
+        <v>20.51115563719003</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999052</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206656</v>
+        <v>96.22237133206652</v>
       </c>
       <c r="T16" t="n">
         <v>105.301636831036</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0168467603523</v>
+        <v>164.0168467603522</v>
       </c>
       <c r="V16" t="n">
-        <v>130.9137990594569</v>
+        <v>130.9137990594568</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799333</v>
+        <v>164.0700248799332</v>
       </c>
       <c r="X16" t="n">
-        <v>104.117807924827</v>
+        <v>104.1178079248269</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028596</v>
+        <v>96.72612186028591</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>133.3460103002755</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8593133009645</v>
+        <v>159.8593133009647</v>
       </c>
       <c r="F17" t="n">
         <v>184.0351410262179</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7333265046506</v>
+        <v>151.4707789952457</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8609527963196</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U18" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W18" t="n">
-        <v>26.7306242956771</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5359974224836</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>40.29062157590362</v>
+        <v>199.8266189983873</v>
       </c>
       <c r="U19" t="n">
         <v>62.78067631351163</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075704</v>
+        <v>28.17695501075703</v>
       </c>
       <c r="V20" t="n">
         <v>105.2744990681964</v>
@@ -2160,16 +2160,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.7417345196995</v>
@@ -2178,7 +2178,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I21" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386589300076</v>
@@ -2220,13 +2220,13 @@
         <v>8.650008585332188</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>242.4853920864334</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.1200819440993</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.761152614192</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>4.065466384195346</v>
@@ -2296,7 +2296,7 @@
         <v>62.78067631351163</v>
       </c>
       <c r="V22" t="n">
-        <v>29.67762861261622</v>
+        <v>225.4387812268081</v>
       </c>
       <c r="W22" t="n">
         <v>62.8338544330926</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.17695501075704</v>
+        <v>28.17695501075703</v>
       </c>
       <c r="V23" t="n">
         <v>105.2744990681964</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>46.64540662353811</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.58434230536847</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S25" t="n">
-        <v>195.761152614192</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>4.065466384195346</v>
@@ -2533,7 +2533,7 @@
         <v>62.78067631351163</v>
       </c>
       <c r="V25" t="n">
-        <v>29.67762861261622</v>
+        <v>62.65814163933539</v>
       </c>
       <c r="W25" t="n">
         <v>62.8338544330926</v>
@@ -2606,7 +2606,7 @@
         <v>51.76539129202308</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566206</v>
+        <v>78.55062316566207</v>
       </c>
       <c r="U26" t="n">
         <v>109.3240828460174</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.91398930833839</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2643,10 +2643,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.394637464486692</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S27" t="n">
-        <v>108.7145492171418</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2479873695406</v>
+        <v>55.13639275047802</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386589300076</v>
@@ -2697,7 +2697,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>78.59391600008378</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.6048153723324</v>
+        <v>241.6048153723325</v>
       </c>
       <c r="C29" t="n">
-        <v>224.87350105988</v>
+        <v>224.8735010598801</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4931381355357</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0064411362248</v>
+        <v>241.0064411362249</v>
       </c>
       <c r="F29" t="n">
-        <v>265.1822688614782</v>
+        <v>265.1822688614783</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2170943914626</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6446289061488</v>
+        <v>190.6446289061489</v>
       </c>
       <c r="I29" t="n">
-        <v>42.8311530961435</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.76539129202303</v>
+        <v>51.76539129202311</v>
       </c>
       <c r="T29" t="n">
-        <v>78.550623165662</v>
+        <v>78.55062316566209</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3240828460173</v>
+        <v>109.3240828460174</v>
       </c>
       <c r="V29" t="n">
-        <v>186.4216269034567</v>
+        <v>186.4216269034568</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4185223814919</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7500045121067</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5754771321731</v>
+        <v>244.5754771321732</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>28.91398930833842</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811126</v>
       </c>
       <c r="F30" t="n">
-        <v>1.394637464486635</v>
+        <v>1.394637464486721</v>
       </c>
       <c r="G30" t="n">
         <v>135.7417345196995</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.81238500081962</v>
+        <v>16.2438810106681</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S30" t="n">
-        <v>38.27202431568526</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T30" t="n">
-        <v>55.13639275047797</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386589300076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.97209687162115</v>
+        <v>37.97209687162123</v>
       </c>
       <c r="C31" t="n">
-        <v>25.22495831213968</v>
+        <v>25.22495831213976</v>
       </c>
       <c r="D31" t="n">
-        <v>6.893971895456701</v>
+        <v>6.893971895456787</v>
       </c>
       <c r="E31" t="n">
-        <v>4.863029554136517</v>
+        <v>4.863029554136602</v>
       </c>
       <c r="F31" t="n">
-        <v>4.047426790741838</v>
+        <v>4.047426790741923</v>
       </c>
       <c r="G31" t="n">
-        <v>25.54201455183512</v>
+        <v>25.54201455183521</v>
       </c>
       <c r="H31" t="n">
-        <v>17.42440280342095</v>
+        <v>17.42440280342104</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726347</v>
+        <v>4.550397237726433</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.66904496841012</v>
+        <v>20.66904496841021</v>
       </c>
       <c r="S31" t="n">
-        <v>76.13332872048616</v>
+        <v>76.13332872048625</v>
       </c>
       <c r="T31" t="n">
-        <v>85.21259421945562</v>
+        <v>85.21259421945571</v>
       </c>
       <c r="U31" t="n">
-        <v>143.9278041487719</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8247564478765</v>
+        <v>110.8247564478766</v>
       </c>
       <c r="W31" t="n">
-        <v>143.9809822683529</v>
+        <v>143.980982268353</v>
       </c>
       <c r="X31" t="n">
-        <v>84.02876531324659</v>
+        <v>84.02876531324668</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.63707924870556</v>
+        <v>76.63707924870565</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3032,10 @@
         <v>224.87350105988</v>
       </c>
       <c r="D32" t="n">
-        <v>214.4931381355358</v>
+        <v>214.4931381355357</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0064411362249</v>
+        <v>241.0064411362248</v>
       </c>
       <c r="F32" t="n">
         <v>265.1822688614782</v>
@@ -3047,7 +3047,7 @@
         <v>190.6446289061488</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614357</v>
+        <v>42.8311530961435</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202308</v>
+        <v>51.76539129202303</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566207</v>
+        <v>78.550623165662</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3240828460174</v>
+        <v>109.3240828460173</v>
       </c>
       <c r="V32" t="n">
         <v>186.4216269034567</v>
       </c>
       <c r="W32" t="n">
-        <v>208.418522381492</v>
+        <v>208.4185223814919</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7500045121068</v>
+        <v>228.7500045121067</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5754771321732</v>
+        <v>244.5754771321731</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>39.50441200195046</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>4.000828955582904</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>1.394637464486692</v>
+        <v>1.394637464486635</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S33" t="n">
-        <v>108.7145492171418</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T33" t="n">
         <v>197.2479873695406</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.9720968716212</v>
+        <v>37.97209687162115</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213973</v>
+        <v>25.22495831213968</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456758</v>
+        <v>6.893971895456701</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136574</v>
+        <v>4.863029554136517</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790741895</v>
+        <v>4.047426790741838</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183518</v>
+        <v>25.54201455183512</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342101</v>
+        <v>17.42440280342095</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726404</v>
+        <v>4.550397237726347</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841018</v>
+        <v>20.66904496841012</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048622</v>
+        <v>76.13332872048616</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945568</v>
+        <v>85.21259421945562</v>
       </c>
       <c r="U34" t="n">
-        <v>143.927804148772</v>
+        <v>143.9278041487719</v>
       </c>
       <c r="V34" t="n">
-        <v>110.8247564478766</v>
+        <v>110.8247564478765</v>
       </c>
       <c r="W34" t="n">
         <v>143.9809822683529</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324665</v>
+        <v>84.02876531324659</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870562</v>
+        <v>76.63707924870556</v>
       </c>
     </row>
     <row r="35">
@@ -3351,16 +3351,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>44.60920388668436</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
         <v>3.976441145282969</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>179.314107741434</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>139.1856971258261</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I39" t="n">
-        <v>8.847024785246973</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
         <v>3.976441145282969</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3718,13 +3718,13 @@
         <v>65.37718098310991</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27413328221451</v>
+        <v>215.0527625484149</v>
       </c>
       <c r="W40" t="n">
         <v>65.43035910269089</v>
       </c>
       <c r="X40" t="n">
-        <v>188.256771413785</v>
+        <v>5.478142147584606</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.8394240803093</v>
+        <v>189.8394240803094</v>
       </c>
       <c r="C41" t="n">
         <v>173.1081097678569</v>
@@ -3746,13 +3746,13 @@
         <v>162.7277468435127</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2410498442017</v>
+        <v>189.2410498442018</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4168775694551</v>
+        <v>213.4168775694552</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4517030994395</v>
+        <v>220.4517030994396</v>
       </c>
       <c r="H41" t="n">
         <v>138.8792376141257</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363896</v>
+        <v>26.78523187363898</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399427</v>
+        <v>57.55869155399428</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6562356114336</v>
+        <v>134.6562356114337</v>
       </c>
       <c r="W41" t="n">
         <v>156.6531310894689</v>
@@ -3819,7 +3819,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3828,16 +3828,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>56.20943489855489</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
-        <v>3.371001458454909</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U42" t="n">
         <v>224.6386589300076</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>80.65394397322537</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846311</v>
+        <v>24.36793742846314</v>
       </c>
       <c r="T43" t="n">
-        <v>33.44720292743257</v>
+        <v>33.4472029274326</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16241285674884</v>
+        <v>92.16241285674887</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05936515585344</v>
+        <v>59.05936515585347</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632982</v>
+        <v>92.21559097632985</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26337402122354</v>
+        <v>32.26337402122357</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668251</v>
+        <v>24.87168795668254</v>
       </c>
     </row>
     <row r="44">
@@ -4031,10 +4031,10 @@
         <v>26.78523187363896</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55869155399427</v>
+        <v>57.55869155399425</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6562356114345</v>
+        <v>134.6562356114336</v>
       </c>
       <c r="W44" t="n">
         <v>156.6531310894689</v>
@@ -4062,16 +4062,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>55.86762824549783</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T45" t="n">
-        <v>28.64876837571732</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U45" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>38.03174512856941</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>962.1924522382635</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="C11" t="n">
-        <v>714.7555394388086</v>
+        <v>787.3357757050745</v>
       </c>
       <c r="D11" t="n">
-        <v>477.8038417144489</v>
+        <v>787.3357757050745</v>
       </c>
       <c r="E11" t="n">
-        <v>477.8038417144489</v>
+        <v>535.1059623616529</v>
       </c>
       <c r="F11" t="n">
-        <v>477.8038417144489</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="G11" t="n">
-        <v>310.5088757300016</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="H11" t="n">
-        <v>97.64658126764903</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777291</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646865</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8288752482729</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7569750909468</v>
+        <v>881.756975090947</v>
       </c>
       <c r="N11" t="n">
         <v>1203.53884361695</v>
@@ -5066,25 +5066,25 @@
         <v>1704.541401376196</v>
       </c>
       <c r="S11" t="n">
-        <v>1631.96116510993</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T11" t="n">
-        <v>1532.325139072311</v>
+        <v>1604.905375338577</v>
       </c>
       <c r="U11" t="n">
-        <v>1401.604810327263</v>
+        <v>1474.185046593529</v>
       </c>
       <c r="V11" t="n">
-        <v>1193.008174453488</v>
+        <v>1265.588410719754</v>
       </c>
       <c r="W11" t="n">
-        <v>962.1924522382635</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="X11" t="n">
-        <v>962.1924522382635</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="Y11" t="n">
-        <v>962.1924522382635</v>
+        <v>1034.772688504529</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>416.7077637915326</v>
+        <v>378.6782874046548</v>
       </c>
       <c r="C12" t="n">
-        <v>367.2097517512107</v>
+        <v>329.1802753643329</v>
       </c>
       <c r="D12" t="n">
-        <v>342.8765481480155</v>
+        <v>304.8470717611377</v>
       </c>
       <c r="E12" t="n">
-        <v>308.5221221887311</v>
+        <v>270.4926458018534</v>
       </c>
       <c r="F12" t="n">
         <v>248.7919588563312</v>
@@ -5154,16 +5154,16 @@
         <v>1113.006075311348</v>
       </c>
       <c r="V12" t="n">
-        <v>878.7548318369491</v>
+        <v>1002.00993487481</v>
       </c>
       <c r="W12" t="n">
-        <v>749.4954432081432</v>
+        <v>834.7210698591264</v>
       </c>
       <c r="X12" t="n">
-        <v>542.9685446137207</v>
+        <v>751.4492743025648</v>
       </c>
       <c r="Y12" t="n">
-        <v>460.4952118752321</v>
+        <v>545.7208385262153</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261.4051868299514</v>
+        <v>261.4051868299508</v>
       </c>
       <c r="C13" t="n">
-        <v>215.6334687251837</v>
+        <v>215.6334687251831</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3778985160553</v>
+        <v>188.3778985160548</v>
       </c>
       <c r="E13" t="n">
-        <v>167.3437692699943</v>
+        <v>163.1737852173509</v>
       </c>
       <c r="F13" t="n">
-        <v>142.9634971464365</v>
+        <v>138.7935130937931</v>
       </c>
       <c r="G13" t="n">
-        <v>96.87152021369363</v>
+        <v>92.70153616105017</v>
       </c>
       <c r="H13" t="n">
-        <v>58.97915110763169</v>
+        <v>54.80916705498862</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752391</v>
@@ -5200,16 +5200,16 @@
         <v>83.45962932283541</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939544</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L13" t="n">
-        <v>409.3994443472054</v>
+        <v>409.3994443472052</v>
       </c>
       <c r="M13" t="n">
-        <v>616.5181956441181</v>
+        <v>616.5181956441179</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805969</v>
+        <v>826.7257971805968</v>
       </c>
       <c r="O13" t="n">
         <v>1014.771769283489</v>
@@ -5221,28 +5221,28 @@
         <v>1231.291889568486</v>
       </c>
       <c r="R13" t="n">
-        <v>1190.122104134153</v>
+        <v>1190.122104134152</v>
       </c>
       <c r="S13" t="n">
-        <v>1092.927789657318</v>
+        <v>1092.927789657317</v>
       </c>
       <c r="T13" t="n">
-        <v>986.5624999289985</v>
+        <v>986.562499928998</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8889173427841</v>
+        <v>820.8889173427837</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766661</v>
+        <v>688.6527566766656</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181477</v>
+        <v>522.9254588181471</v>
       </c>
       <c r="X13" t="n">
-        <v>417.755955863777</v>
+        <v>417.7559558637765</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0528024695487</v>
+        <v>320.0528024695483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>885.9150071882725</v>
+        <v>995.0745448801608</v>
       </c>
       <c r="C14" t="n">
-        <v>885.9150071882725</v>
+        <v>747.637632080706</v>
       </c>
       <c r="D14" t="n">
-        <v>885.9150071882725</v>
+        <v>510.6859343563464</v>
       </c>
       <c r="E14" t="n">
-        <v>622.1821953218026</v>
+        <v>246.9531224898765</v>
       </c>
       <c r="F14" t="n">
-        <v>605.7675999754998</v>
+        <v>246.9531224898765</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5088757300019</v>
+        <v>246.9531224898765</v>
       </c>
       <c r="H14" t="n">
-        <v>97.64658126764905</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I14" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777291</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K14" t="n">
-        <v>265.1898083646865</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482729</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7569750909468</v>
+        <v>881.756975090947</v>
       </c>
       <c r="N14" t="n">
         <v>1203.53884361695</v>
@@ -5303,25 +5303,25 @@
         <v>1704.541401376196</v>
       </c>
       <c r="S14" t="n">
-        <v>1631.961165109929</v>
+        <v>1701.365434267666</v>
       </c>
       <c r="T14" t="n">
-        <v>1532.325139072311</v>
+        <v>1601.729408230048</v>
       </c>
       <c r="U14" t="n">
-        <v>1401.604810327263</v>
+        <v>1471.009079485</v>
       </c>
       <c r="V14" t="n">
-        <v>1401.604810327263</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="W14" t="n">
-        <v>1401.604810327263</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="X14" t="n">
-        <v>1150.252237475053</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="Y14" t="n">
-        <v>1150.252237475053</v>
+        <v>995.0745448801608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378.6782874046551</v>
+        <v>286.6672934388064</v>
       </c>
       <c r="C15" t="n">
-        <v>329.1802753643331</v>
+        <v>237.1692813984845</v>
       </c>
       <c r="D15" t="n">
-        <v>304.8470717611378</v>
+        <v>212.8360777952893</v>
       </c>
       <c r="E15" t="n">
-        <v>270.4926458018534</v>
+        <v>178.4816518360049</v>
       </c>
       <c r="F15" t="n">
-        <v>248.7919588563312</v>
+        <v>156.7809648904827</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6790957051195</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I15" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J15" t="n">
-        <v>67.81148563097685</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0510736548811</v>
+        <v>218.3304160514282</v>
       </c>
       <c r="L15" t="n">
-        <v>560.6335432935728</v>
+        <v>526.9128856901198</v>
       </c>
       <c r="M15" t="n">
-        <v>973.5349245418565</v>
+        <v>939.8142669384035</v>
       </c>
       <c r="N15" t="n">
-        <v>1118.578773562434</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O15" t="n">
-        <v>1452.758916170284</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P15" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q15" t="n">
         <v>1704.541401376196</v>
       </c>
       <c r="R15" t="n">
-        <v>1704.541401376196</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S15" t="n">
-        <v>1539.15420288665</v>
+        <v>1532.368835571784</v>
       </c>
       <c r="T15" t="n">
-        <v>1339.913811604285</v>
+        <v>1333.12844428942</v>
       </c>
       <c r="U15" t="n">
-        <v>1198.231701962332</v>
+        <v>1229.475811034344</v>
       </c>
       <c r="V15" t="n">
-        <v>1087.235561525793</v>
+        <v>995.2245675599446</v>
       </c>
       <c r="W15" t="n">
-        <v>834.7210698591267</v>
+        <v>742.7100758932779</v>
       </c>
       <c r="X15" t="n">
-        <v>628.1941712647042</v>
+        <v>536.1831772988554</v>
       </c>
       <c r="Y15" t="n">
-        <v>422.4657354883547</v>
+        <v>330.4547415225059</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.5751708825946</v>
+        <v>261.4051868299509</v>
       </c>
       <c r="C16" t="n">
-        <v>219.8034527778268</v>
+        <v>215.6334687251832</v>
       </c>
       <c r="D16" t="n">
-        <v>192.5478825686984</v>
+        <v>188.3778985160549</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3437692699945</v>
+        <v>163.173785217351</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464367</v>
+        <v>138.7935130937932</v>
       </c>
       <c r="G16" t="n">
-        <v>96.8715202136937</v>
+        <v>92.70153616105014</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763172</v>
+        <v>54.80916705498859</v>
       </c>
       <c r="I16" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283538</v>
+        <v>83.45962932283541</v>
       </c>
       <c r="K16" t="n">
         <v>216.7776820939542</v>
@@ -5449,7 +5449,7 @@
         <v>826.7257971805967</v>
       </c>
       <c r="O16" t="n">
-        <v>1014.771769283488</v>
+        <v>1014.771769283489</v>
       </c>
       <c r="P16" t="n">
         <v>1169.890169899395</v>
@@ -5464,22 +5464,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T16" t="n">
-        <v>986.5624999289979</v>
+        <v>986.562499928998</v>
       </c>
       <c r="U16" t="n">
-        <v>820.8889173427833</v>
+        <v>820.8889173427838</v>
       </c>
       <c r="V16" t="n">
-        <v>688.6527566766653</v>
+        <v>688.6527566766657</v>
       </c>
       <c r="W16" t="n">
-        <v>522.9254588181468</v>
+        <v>522.9254588181473</v>
       </c>
       <c r="X16" t="n">
-        <v>417.7559558637764</v>
+        <v>417.7559558637766</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.0528024695482</v>
+        <v>320.0528024695484</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>964.9335608347649</v>
       </c>
       <c r="C17" t="n">
-        <v>819.7554060624218</v>
+        <v>819.7554060624217</v>
       </c>
       <c r="D17" t="n">
-        <v>685.062466365174</v>
+        <v>685.0624663651738</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258159</v>
+        <v>523.5884125258156</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6943306811513</v>
+        <v>337.694330681151</v>
       </c>
       <c r="G17" t="n">
         <v>144.6943644627648</v>
@@ -5513,16 +5513,16 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777291</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K17" t="n">
-        <v>265.1898083646865</v>
+        <v>265.189808364687</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482729</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M17" t="n">
-        <v>881.7569750909468</v>
+        <v>881.756975090947</v>
       </c>
       <c r="N17" t="n">
         <v>1203.53884361695</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>589.6300464215037</v>
+        <v>206.8439431057067</v>
       </c>
       <c r="C18" t="n">
-        <v>416.8769313433209</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="D18" t="n">
-        <v>269.2886247022648</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I18" t="n">
         <v>34.09082802752391</v>
@@ -5595,22 +5595,22 @@
         <v>67.81148563097685</v>
       </c>
       <c r="K18" t="n">
-        <v>67.81148563097685</v>
+        <v>252.0510736548811</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3939552696685</v>
+        <v>560.6335432935728</v>
       </c>
       <c r="M18" t="n">
-        <v>789.2953365179523</v>
+        <v>579.9557856232746</v>
       </c>
       <c r="N18" t="n">
-        <v>1211.169333358561</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O18" t="n">
-        <v>1545.349475966411</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P18" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q18" t="n">
         <v>1704.541401376196</v>
@@ -5619,25 +5619,25 @@
         <v>1626.542617113318</v>
       </c>
       <c r="S18" t="n">
-        <v>1461.155418623772</v>
+        <v>1473.541830249434</v>
       </c>
       <c r="T18" t="n">
-        <v>1283.518092566884</v>
+        <v>1274.301438967069</v>
       </c>
       <c r="U18" t="n">
-        <v>1056.610356273947</v>
+        <v>1047.393702674132</v>
       </c>
       <c r="V18" t="n">
-        <v>822.3591127995473</v>
+        <v>1038.656320264706</v>
       </c>
       <c r="W18" t="n">
-        <v>795.3584821978533</v>
+        <v>786.1418285980392</v>
       </c>
       <c r="X18" t="n">
-        <v>795.3584821978533</v>
+        <v>579.6149300036167</v>
       </c>
       <c r="Y18" t="n">
-        <v>589.6300464215037</v>
+        <v>373.8864942272672</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="C19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="D19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H19" t="n">
         <v>34.09082802752391</v>
@@ -5701,22 +5701,22 @@
         <v>395.7074096796391</v>
       </c>
       <c r="T19" t="n">
-        <v>355.0098121282213</v>
+        <v>193.8623399842984</v>
       </c>
       <c r="U19" t="n">
-        <v>291.5949875691186</v>
+        <v>130.4475154251957</v>
       </c>
       <c r="V19" t="n">
-        <v>261.6175849301123</v>
+        <v>100.4701127861895</v>
       </c>
       <c r="W19" t="n">
-        <v>198.1490450987057</v>
+        <v>37.00157295478282</v>
       </c>
       <c r="X19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752391</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347649</v>
+        <v>964.9335608347651</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624216</v>
+        <v>819.7554060624218</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651736</v>
+        <v>685.0624663651738</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258154</v>
+        <v>523.5884125258157</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6943306811509</v>
+        <v>337.6943306811511</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627648</v>
@@ -5750,7 +5750,7 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777311</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K20" t="n">
         <v>265.1898083646868</v>
@@ -5759,7 +5759,7 @@
         <v>549.8288752482731</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7569750909469</v>
+        <v>881.756975090947</v>
       </c>
       <c r="N20" t="n">
         <v>1203.53884361695</v>
@@ -5783,13 +5783,13 @@
         <v>1704.541401376196</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.079830658259</v>
+        <v>1676.07983065826</v>
       </c>
       <c r="V20" t="n">
-        <v>1569.741952811596</v>
+        <v>1569.741952811597</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.184988623483</v>
+        <v>1441.184988623484</v>
       </c>
       <c r="X20" t="n">
         <v>1292.091173798386</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>980.5310763057066</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="C21" t="n">
-        <v>807.7779612275237</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="D21" t="n">
-        <v>660.1896545864676</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="E21" t="n">
-        <v>502.5801255893223</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="F21" t="n">
-        <v>357.6243356059392</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="G21" t="n">
-        <v>220.5114724547275</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I21" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J21" t="n">
-        <v>34.09082802752391</v>
+        <v>67.81148563097685</v>
       </c>
       <c r="K21" t="n">
-        <v>110.2544199422107</v>
+        <v>252.0510736548811</v>
       </c>
       <c r="L21" t="n">
-        <v>418.8368895809024</v>
+        <v>560.6335432935728</v>
       </c>
       <c r="M21" t="n">
-        <v>831.7382708291861</v>
+        <v>579.9557856232746</v>
       </c>
       <c r="N21" t="n">
-        <v>1253.612267669795</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O21" t="n">
-        <v>1587.792410277645</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P21" t="n">
         <v>1587.792410277645</v>
@@ -5856,25 +5856,25 @@
         <v>1704.541401376196</v>
       </c>
       <c r="S21" t="n">
-        <v>1704.541401376196</v>
+        <v>1539.15420288665</v>
       </c>
       <c r="T21" t="n">
-        <v>1704.541401376196</v>
+        <v>1339.913811604285</v>
       </c>
       <c r="U21" t="n">
-        <v>1477.633665083259</v>
+        <v>1113.006075311348</v>
       </c>
       <c r="V21" t="n">
-        <v>1468.896282673832</v>
+        <v>1104.268692901922</v>
       </c>
       <c r="W21" t="n">
-        <v>1216.381791007165</v>
+        <v>859.333953420676</v>
       </c>
       <c r="X21" t="n">
-        <v>1216.381791007165</v>
+        <v>652.8070548262535</v>
       </c>
       <c r="Y21" t="n">
-        <v>1147.573627427267</v>
+        <v>447.078619049904</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>395.7074096796391</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9688716855058</v>
+        <v>395.7074096796391</v>
       </c>
       <c r="T22" t="n">
-        <v>193.8623399842984</v>
+        <v>391.6008779784317</v>
       </c>
       <c r="U22" t="n">
-        <v>130.4475154251957</v>
+        <v>328.186053419329</v>
       </c>
       <c r="V22" t="n">
         <v>100.4701127861895</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347651</v>
+        <v>964.9335608347649</v>
       </c>
       <c r="C23" t="n">
-        <v>819.755406062422</v>
+        <v>819.7554060624218</v>
       </c>
       <c r="D23" t="n">
-        <v>685.062466365174</v>
+        <v>685.0624663651738</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258159</v>
+        <v>523.5884125258157</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811513</v>
+        <v>337.6943306811511</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627648</v>
@@ -5987,13 +5987,13 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K23" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482732</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M23" t="n">
         <v>881.756975090947</v>
@@ -6020,13 +6020,13 @@
         <v>1704.541401376196</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658259</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X23" t="n">
         <v>1292.091173798386</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>411.5700444498602</v>
+        <v>597.7449729899095</v>
       </c>
       <c r="C24" t="n">
-        <v>238.8169293716774</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="D24" t="n">
-        <v>238.8169293716774</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="E24" t="n">
-        <v>81.20740037453211</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="F24" t="n">
-        <v>34.09082802752391</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="G24" t="n">
-        <v>34.09082802752391</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H24" t="n">
         <v>34.09082802752391</v>
@@ -6066,22 +6066,22 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J24" t="n">
-        <v>67.81148563097685</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K24" t="n">
-        <v>67.81148563097685</v>
+        <v>218.3304160514282</v>
       </c>
       <c r="L24" t="n">
-        <v>376.3939552696685</v>
+        <v>526.9128856901198</v>
       </c>
       <c r="M24" t="n">
-        <v>789.2953365179523</v>
+        <v>939.8142669384035</v>
       </c>
       <c r="N24" t="n">
-        <v>1001.829782463883</v>
+        <v>1361.688263779012</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.009925071734</v>
+        <v>1361.688263779012</v>
       </c>
       <c r="P24" t="n">
         <v>1587.792410277645</v>
@@ -6090,28 +6090,28 @@
         <v>1704.541401376196</v>
       </c>
       <c r="R24" t="n">
-        <v>1704.541401376196</v>
+        <v>1663.547116219258</v>
       </c>
       <c r="S24" t="n">
-        <v>1704.541401376196</v>
+        <v>1498.159917729712</v>
       </c>
       <c r="T24" t="n">
-        <v>1704.541401376196</v>
+        <v>1498.159917729712</v>
       </c>
       <c r="U24" t="n">
-        <v>1477.633665083259</v>
+        <v>1271.252181436775</v>
       </c>
       <c r="V24" t="n">
-        <v>1243.382421608859</v>
+        <v>1262.514799027348</v>
       </c>
       <c r="W24" t="n">
-        <v>990.8679299421927</v>
+        <v>1010.000307360682</v>
       </c>
       <c r="X24" t="n">
-        <v>784.3410313477702</v>
+        <v>803.473408766259</v>
       </c>
       <c r="Y24" t="n">
-        <v>578.6125955714207</v>
+        <v>597.7449729899095</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6169,16 @@
         <v>395.7074096796391</v>
       </c>
       <c r="R25" t="n">
-        <v>395.7074096796391</v>
+        <v>231.2825212074444</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9688716855058</v>
+        <v>231.2825212074444</v>
       </c>
       <c r="T25" t="n">
-        <v>193.8623399842984</v>
+        <v>227.175989506237</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4475154251957</v>
+        <v>163.7611649471343</v>
       </c>
       <c r="V25" t="n">
         <v>100.4701127861895</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.640936362584</v>
+        <v>1523.640936362585</v>
       </c>
       <c r="C26" t="n">
         <v>1296.495985797049</v>
@@ -6209,13 +6209,13 @@
         <v>1079.836250306609</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740582</v>
+        <v>836.3954006740587</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362014</v>
+        <v>568.5345230362019</v>
       </c>
       <c r="G26" t="n">
-        <v>293.567761024623</v>
+        <v>293.5677610246235</v>
       </c>
       <c r="H26" t="n">
         <v>100.9974287961899</v>
@@ -6245,31 +6245,31 @@
         <v>2652.756385820219</v>
       </c>
       <c r="Q26" t="n">
-        <v>2853.708040521631</v>
+        <v>2853.708040521632</v>
       </c>
       <c r="R26" t="n">
         <v>2886.681889499214</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.393615466868</v>
+        <v>2834.393615466869</v>
       </c>
       <c r="T26" t="n">
         <v>2755.049551663169</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152041</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512186</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530881</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912591</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.686204415445</v>
+        <v>1767.686204415446</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.0933132179712</v>
+        <v>674.2061763691829</v>
       </c>
       <c r="C27" t="n">
-        <v>364.3401981397884</v>
+        <v>645.0001265627805</v>
       </c>
       <c r="D27" t="n">
-        <v>216.7518914987323</v>
+        <v>497.4118199217244</v>
       </c>
       <c r="E27" t="n">
-        <v>59.14236250158701</v>
+        <v>339.8022909245791</v>
       </c>
       <c r="F27" t="n">
-        <v>57.73363778998429</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G27" t="n">
         <v>57.73363778998429</v>
@@ -6327,28 +6327,28 @@
         <v>2139.117737403582</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.117737403582</v>
+        <v>2061.118953140704</v>
       </c>
       <c r="S27" t="n">
-        <v>2029.305061426671</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T27" t="n">
-        <v>1830.064670144307</v>
+        <v>1840.038428640574</v>
       </c>
       <c r="U27" t="n">
-        <v>1603.15693385137</v>
+        <v>1613.130692347637</v>
       </c>
       <c r="V27" t="n">
-        <v>1368.905690376971</v>
+        <v>1378.879448873238</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.391198710304</v>
+        <v>1126.364957206571</v>
       </c>
       <c r="X27" t="n">
-        <v>909.8643001158812</v>
+        <v>1046.977163267093</v>
       </c>
       <c r="Y27" t="n">
-        <v>704.1358643395316</v>
+        <v>841.2487274907434</v>
       </c>
     </row>
     <row r="28">
@@ -6382,22 +6382,22 @@
         <v>57.73363778998429</v>
       </c>
       <c r="J28" t="n">
-        <v>69.45539811559155</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="K28" t="n">
-        <v>81.97112439930299</v>
+        <v>70.24936407369573</v>
       </c>
       <c r="L28" t="n">
         <v>153.7905601651465</v>
       </c>
       <c r="M28" t="n">
-        <v>240.1069849746518</v>
+        <v>380.7974636475237</v>
       </c>
       <c r="N28" t="n">
-        <v>470.2027386965951</v>
+        <v>610.893217369467</v>
       </c>
       <c r="O28" t="n">
-        <v>678.1368629849514</v>
+        <v>818.8273416578234</v>
       </c>
       <c r="P28" t="n">
         <v>853.1434157863225</v>
@@ -6440,37 +6440,37 @@
         <v>1523.640936362585</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.49598579705</v>
       </c>
       <c r="D29" t="n">
         <v>1079.836250306609</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3954006740588</v>
+        <v>836.3954006740589</v>
       </c>
       <c r="F29" t="n">
         <v>568.534523036202</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5677610246236</v>
+        <v>293.5677610246235</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9974287961904</v>
+        <v>100.99742879619</v>
       </c>
       <c r="I29" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231056</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2135754728907</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293491</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.161699544895</v>
+        <v>1468.161699544896</v>
       </c>
       <c r="N29" t="n">
         <v>1930.63404674377</v>
@@ -6479,7 +6479,7 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.756385820219</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q29" t="n">
         <v>2853.708040521632</v>
@@ -6488,22 +6488,22 @@
         <v>2886.681889499214</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.393615466868</v>
+        <v>2834.393615466869</v>
       </c>
       <c r="T29" t="n">
         <v>2755.049551663169</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152041</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512186</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530881</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912591</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.686204415446</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>751.7944440467786</v>
+        <v>403.5200064424587</v>
       </c>
       <c r="C30" t="n">
-        <v>579.0413289685957</v>
+        <v>374.3139566360562</v>
       </c>
       <c r="D30" t="n">
-        <v>431.4530223275395</v>
+        <v>226.7256499950001</v>
       </c>
       <c r="E30" t="n">
-        <v>273.8434933303942</v>
+        <v>212.6631862696352</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4347686187916</v>
+        <v>211.2544615580324</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3219054675799</v>
+        <v>74.14159840682075</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3219054675799</v>
+        <v>74.14159840682075</v>
       </c>
       <c r="I30" t="n">
         <v>57.73363778998429</v>
@@ -6564,28 +6564,28 @@
         <v>2139.117737403582</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.117737403582</v>
+        <v>2061.118953140704</v>
       </c>
       <c r="S30" t="n">
-        <v>2100.459126983698</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T30" t="n">
-        <v>2044.765800973114</v>
+        <v>1696.491363368794</v>
       </c>
       <c r="U30" t="n">
-        <v>1817.858064680177</v>
+        <v>1469.583627075857</v>
       </c>
       <c r="V30" t="n">
-        <v>1583.606821205778</v>
+        <v>1235.332383601458</v>
       </c>
       <c r="W30" t="n">
-        <v>1331.092329539111</v>
+        <v>982.8178919347912</v>
       </c>
       <c r="X30" t="n">
-        <v>1124.565430944689</v>
+        <v>776.2909933403687</v>
       </c>
       <c r="Y30" t="n">
-        <v>918.8369951683391</v>
+        <v>570.5625575640191</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.1742450076178</v>
+        <v>147.1742450076184</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367696</v>
+        <v>121.6944891367701</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7308811615608</v>
+        <v>114.7308811615613</v>
       </c>
       <c r="E31" t="n">
-        <v>109.8187300967765</v>
+        <v>109.8187300967768</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7304202071383</v>
+        <v>105.7304202071385</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831489</v>
+        <v>79.93040550831506</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32999863617252</v>
+        <v>62.3299986361726</v>
       </c>
       <c r="I31" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J31" t="n">
-        <v>57.73363778998429</v>
+        <v>126.9905912707602</v>
       </c>
       <c r="K31" t="n">
-        <v>163.260996253857</v>
+        <v>139.5063175544717</v>
       </c>
       <c r="L31" t="n">
-        <v>235.0804320197005</v>
+        <v>211.3257533203152</v>
       </c>
       <c r="M31" t="n">
-        <v>321.3968568292058</v>
+        <v>380.7974636475243</v>
       </c>
       <c r="N31" t="n">
-        <v>551.4926105511493</v>
+        <v>610.8932173694676</v>
       </c>
       <c r="O31" t="n">
-        <v>759.4267348395056</v>
+        <v>678.1368629849519</v>
       </c>
       <c r="P31" t="n">
-        <v>934.4332876408768</v>
+        <v>853.143415786323</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.4332876408768</v>
+        <v>934.4332876408782</v>
       </c>
       <c r="R31" t="n">
-        <v>913.5554644404625</v>
+        <v>913.5554644404639</v>
       </c>
       <c r="S31" t="n">
-        <v>836.6531121975472</v>
+        <v>836.6531121975485</v>
       </c>
       <c r="T31" t="n">
-        <v>750.5797847031477</v>
+        <v>750.5797847031488</v>
       </c>
       <c r="U31" t="n">
-        <v>605.1981643508528</v>
+        <v>605.1981643508539</v>
       </c>
       <c r="V31" t="n">
-        <v>493.2539659186543</v>
+        <v>493.2539659186553</v>
       </c>
       <c r="W31" t="n">
-        <v>347.8186302940555</v>
+        <v>347.8186302940563</v>
       </c>
       <c r="X31" t="n">
-        <v>262.9410895736044</v>
+        <v>262.9410895736052</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.5298984132957</v>
+        <v>185.5298984132964</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>1296.495985797049</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740582</v>
+        <v>836.3954006740581</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362014</v>
+        <v>568.5345230362013</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5677610246233</v>
+        <v>293.5677610246229</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9974287961899</v>
+        <v>100.9974287961898</v>
       </c>
       <c r="I32" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9750076231055</v>
+        <v>241.9750076231057</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2135754728911</v>
+        <v>570.2135754728913</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293486</v>
+        <v>995.5431210293497</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.161699544894</v>
+        <v>1468.161699544895</v>
       </c>
       <c r="N32" t="n">
-        <v>1930.634046743769</v>
+        <v>1930.63404674377</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.04566784344</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P32" t="n">
-        <v>2652.756385820219</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q32" t="n">
         <v>2853.708040521632</v>
@@ -6728,16 +6728,16 @@
         <v>2834.393615466868</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.049551663168</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X32" t="n">
         <v>2014.73214091259</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>537.0933132179712</v>
+        <v>530.6591110974025</v>
       </c>
       <c r="C33" t="n">
-        <v>364.3401981397884</v>
+        <v>357.9059960192196</v>
       </c>
       <c r="D33" t="n">
-        <v>216.7518914987323</v>
+        <v>353.864754649944</v>
       </c>
       <c r="E33" t="n">
-        <v>59.14236250158701</v>
+        <v>196.2552256527987</v>
       </c>
       <c r="F33" t="n">
-        <v>57.73363778998429</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G33" t="n">
         <v>57.73363778998429</v>
@@ -6801,28 +6801,28 @@
         <v>2139.117737403582</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.117737403582</v>
+        <v>2061.118953140704</v>
       </c>
       <c r="S33" t="n">
-        <v>2029.305061426671</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T33" t="n">
-        <v>1830.064670144307</v>
+        <v>1696.491363368794</v>
       </c>
       <c r="U33" t="n">
-        <v>1603.15693385137</v>
+        <v>1469.583627075857</v>
       </c>
       <c r="V33" t="n">
-        <v>1368.905690376971</v>
+        <v>1235.332383601458</v>
       </c>
       <c r="W33" t="n">
-        <v>1116.391198710304</v>
+        <v>982.8178919347912</v>
       </c>
       <c r="X33" t="n">
-        <v>909.8643001158812</v>
+        <v>776.2909933403687</v>
       </c>
       <c r="Y33" t="n">
-        <v>704.1358643395316</v>
+        <v>570.5625575640191</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076182</v>
+        <v>147.1742450076178</v>
       </c>
       <c r="C34" t="n">
-        <v>121.69448913677</v>
+        <v>121.6944891367696</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615611</v>
+        <v>114.7308811615608</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967767</v>
+        <v>109.8187300967765</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071384</v>
+        <v>105.7304202071383</v>
       </c>
       <c r="G34" t="n">
-        <v>79.930405508315</v>
+        <v>79.93040550831489</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617258</v>
+        <v>62.32999863617252</v>
       </c>
       <c r="I34" t="n">
         <v>57.73363778998429</v>
@@ -6859,49 +6859,49 @@
         <v>126.9905912707603</v>
       </c>
       <c r="K34" t="n">
-        <v>139.5063175544717</v>
+        <v>222.6616030721736</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0162319931872</v>
+        <v>294.4810388380171</v>
       </c>
       <c r="M34" t="n">
-        <v>438.3326568026925</v>
+        <v>380.7974636475224</v>
       </c>
       <c r="N34" t="n">
-        <v>527.737931851764</v>
+        <v>470.2027386965938</v>
       </c>
       <c r="O34" t="n">
-        <v>678.1368629849514</v>
+        <v>678.1368629849502</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863225</v>
+        <v>853.1434157863214</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408779</v>
+        <v>934.4332876408768</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404635</v>
+        <v>913.5554644404625</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975481</v>
+        <v>836.6531121975472</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031484</v>
+        <v>750.5797847031477</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508535</v>
+        <v>605.1981643508528</v>
       </c>
       <c r="V34" t="n">
-        <v>493.253965918655</v>
+        <v>493.2539659186543</v>
       </c>
       <c r="W34" t="n">
-        <v>347.818630294056</v>
+        <v>347.8186302940555</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736049</v>
+        <v>262.9410895736044</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132962</v>
+        <v>185.5298984132957</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834366</v>
+        <v>981.3122544834364</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677216004</v>
+        <v>833.5113677216</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956960348593</v>
+        <v>696.1956960348589</v>
       </c>
       <c r="E35" t="n">
-        <v>532.098910206008</v>
+        <v>532.0989102060075</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718502</v>
+        <v>343.5820963718497</v>
       </c>
       <c r="G35" t="n">
         <v>147.9593981639706</v>
@@ -6932,10 +6932,10 @@
         <v>34.73312973923653</v>
       </c>
       <c r="I35" t="n">
-        <v>66.20591361315448</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="J35" t="n">
-        <v>109.7568047734037</v>
+        <v>78.2840208994858</v>
       </c>
       <c r="K35" t="n">
         <v>297.3048939503174</v>
@@ -6971,7 +6971,7 @@
         <v>1705.572184254397</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.611574418241</v>
+        <v>1596.61157441824</v>
       </c>
       <c r="W35" t="n">
         <v>1465.431878240635</v>
@@ -6980,7 +6980,7 @@
         <v>1313.715331426044</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.013458732599</v>
+        <v>1146.013458732598</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>666.5762591109706</v>
+        <v>355.0745514584755</v>
       </c>
       <c r="C36" t="n">
-        <v>493.8231440327878</v>
+        <v>182.3214363802927</v>
       </c>
       <c r="D36" t="n">
-        <v>346.2348373917316</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="E36" t="n">
-        <v>188.6253083945863</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="F36" t="n">
-        <v>188.6253083945863</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="G36" t="n">
-        <v>143.5655064888445</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="H36" t="n">
         <v>34.73312973923653</v>
@@ -7017,22 +7017,22 @@
         <v>34.73312973923653</v>
       </c>
       <c r="K36" t="n">
-        <v>34.73312973923653</v>
+        <v>218.9727177631408</v>
       </c>
       <c r="L36" t="n">
-        <v>307.9699973767285</v>
+        <v>525.4011488860285</v>
       </c>
       <c r="M36" t="n">
-        <v>720.8713786250123</v>
+        <v>938.3025301343123</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.693859148064</v>
+        <v>1368.125010657364</v>
       </c>
       <c r="O36" t="n">
-        <v>1484.874001755915</v>
+        <v>1368.125010657364</v>
       </c>
       <c r="P36" t="n">
-        <v>1736.656486961826</v>
+        <v>1619.907495863276</v>
       </c>
       <c r="Q36" t="n">
         <v>1736.656486961826</v>
@@ -7041,25 +7041,25 @@
         <v>1736.656486961826</v>
       </c>
       <c r="S36" t="n">
-        <v>1736.656486961826</v>
+        <v>1571.26928847228</v>
       </c>
       <c r="T36" t="n">
-        <v>1736.656486961826</v>
+        <v>1372.028897189916</v>
       </c>
       <c r="U36" t="n">
-        <v>1732.639879744369</v>
+        <v>1368.012289972459</v>
       </c>
       <c r="V36" t="n">
-        <v>1498.38863626997</v>
+        <v>1186.886928617475</v>
       </c>
       <c r="W36" t="n">
-        <v>1245.874144603303</v>
+        <v>934.3724369508079</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.347246008881</v>
+        <v>727.8455383563854</v>
       </c>
       <c r="Y36" t="n">
-        <v>833.618810232531</v>
+        <v>522.1171025800359</v>
       </c>
     </row>
     <row r="37">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834364</v>
+        <v>981.3122544834368</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677216</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348589</v>
+        <v>696.1956960348593</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060075</v>
+        <v>532.098910206008</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718497</v>
+        <v>343.5820963718502</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
@@ -7169,55 +7169,55 @@
         <v>34.73312973923653</v>
       </c>
       <c r="I38" t="n">
-        <v>66.20591361315448</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="J38" t="n">
-        <v>109.7568047734037</v>
+        <v>78.2840208994858</v>
       </c>
       <c r="K38" t="n">
-        <v>297.3048939503174</v>
+        <v>265.8321100763994</v>
       </c>
       <c r="L38" t="n">
-        <v>581.9439608339037</v>
+        <v>550.4711769599858</v>
       </c>
       <c r="M38" t="n">
-        <v>913.8720606765776</v>
+        <v>882.3992768026596</v>
       </c>
       <c r="N38" t="n">
-        <v>1235.65392920258</v>
+        <v>1204.181145328663</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.375071629379</v>
+        <v>1461.902287755461</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.395310933286</v>
+        <v>1644.922527059368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.656486961826</v>
+        <v>1705.183703087908</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U38" t="n">
         <v>1705.572184254397</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.61157441824</v>
+        <v>1596.611574418241</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.431878240634</v>
+        <v>1465.431878240635</v>
       </c>
       <c r="X38" t="n">
         <v>1313.715331426044</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.013458732598</v>
+        <v>1146.013458732599</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>666.5762591109706</v>
+        <v>621.5164572052288</v>
       </c>
       <c r="C39" t="n">
-        <v>493.8231440327878</v>
+        <v>448.763342127046</v>
       </c>
       <c r="D39" t="n">
-        <v>346.2348373917316</v>
+        <v>301.1750354859898</v>
       </c>
       <c r="E39" t="n">
-        <v>188.6253083945863</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="F39" t="n">
-        <v>43.66951841120317</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="G39" t="n">
-        <v>43.66951841120317</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="H39" t="n">
-        <v>43.66951841120317</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I39" t="n">
         <v>34.73312973923653</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73312973923653</v>
+        <v>68.45378734268945</v>
       </c>
       <c r="K39" t="n">
-        <v>34.73312973923653</v>
+        <v>68.45378734268945</v>
       </c>
       <c r="L39" t="n">
-        <v>307.9699973767285</v>
+        <v>377.0362569813811</v>
       </c>
       <c r="M39" t="n">
-        <v>720.8713786250123</v>
+        <v>789.9376382296648</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.693859148064</v>
+        <v>1219.760118752717</v>
       </c>
       <c r="O39" t="n">
-        <v>1484.874001755915</v>
+        <v>1368.125010657365</v>
       </c>
       <c r="P39" t="n">
-        <v>1736.656486961826</v>
+        <v>1619.907495863276</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.656486961826</v>
+        <v>1658.657702698949</v>
       </c>
       <c r="S39" t="n">
-        <v>1736.656486961826</v>
+        <v>1658.657702698949</v>
       </c>
       <c r="T39" t="n">
-        <v>1736.656486961826</v>
+        <v>1459.417311416585</v>
       </c>
       <c r="U39" t="n">
-        <v>1732.639879744369</v>
+        <v>1455.400704199127</v>
       </c>
       <c r="V39" t="n">
-        <v>1498.38863626997</v>
+        <v>1221.149460724728</v>
       </c>
       <c r="W39" t="n">
-        <v>1245.874144603303</v>
+        <v>968.6349690580615</v>
       </c>
       <c r="X39" t="n">
-        <v>1039.347246008881</v>
+        <v>762.108070463639</v>
       </c>
       <c r="Y39" t="n">
-        <v>833.618810232531</v>
+        <v>762.108070463639</v>
       </c>
     </row>
     <row r="40">
@@ -7366,10 +7366,10 @@
         <v>323.5828911520551</v>
       </c>
       <c r="V40" t="n">
-        <v>290.9827565235556</v>
+        <v>106.3578784768885</v>
       </c>
       <c r="W40" t="n">
-        <v>224.8914847026557</v>
+        <v>40.26660665598866</v>
       </c>
       <c r="X40" t="n">
         <v>34.73312973923653</v>
@@ -7388,73 +7388,73 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.9683832523956</v>
+        <v>975.9683832523948</v>
       </c>
       <c r="D41" t="n">
-        <v>811.596921794302</v>
+        <v>811.5969217943011</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940982</v>
+        <v>620.4443461940973</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8717425885879</v>
+        <v>404.871742588587</v>
       </c>
       <c r="G41" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I41" t="n">
-        <v>50.75609222718959</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J41" t="n">
-        <v>94.30698338743885</v>
+        <v>85.46208757351808</v>
       </c>
       <c r="K41" t="n">
-        <v>281.8550725643525</v>
+        <v>464.9483928024066</v>
       </c>
       <c r="L41" t="n">
-        <v>566.4941394479388</v>
+        <v>749.5874596859929</v>
       </c>
       <c r="M41" t="n">
-        <v>898.4222392906127</v>
+        <v>1268.238515300195</v>
       </c>
       <c r="N41" t="n">
-        <v>1220.204107816616</v>
+        <v>1590.020383826198</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.118602922334</v>
+        <v>1847.741526252996</v>
       </c>
       <c r="P41" t="n">
-        <v>1759.138842226241</v>
+        <v>2030.761765556903</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.338234306756</v>
+        <v>2091.022941585443</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.363938413307</v>
+        <v>2010.363938413306</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.347538805799</v>
+        <v>1874.347538805798</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856839</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.339716270897</v>
+        <v>1537.339716270896</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.582053806099</v>
+        <v>1342.582053806098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>799.1834117588692</v>
+        <v>484.2218952026819</v>
       </c>
       <c r="C42" t="n">
-        <v>626.4302966806863</v>
+        <v>484.2218952026819</v>
       </c>
       <c r="D42" t="n">
-        <v>478.8419900396302</v>
+        <v>336.6335885616258</v>
       </c>
       <c r="E42" t="n">
-        <v>321.2324610424848</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="F42" t="n">
-        <v>176.2766710591017</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="G42" t="n">
-        <v>119.4994640908644</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4994640908644</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J42" t="n">
-        <v>75.63185401672176</v>
+        <v>75.63185401672175</v>
       </c>
       <c r="K42" t="n">
-        <v>259.8714420406261</v>
+        <v>259.871442040626</v>
       </c>
       <c r="L42" t="n">
-        <v>568.4539116793177</v>
+        <v>568.4539116793176</v>
       </c>
       <c r="M42" t="n">
-        <v>981.3552929276015</v>
+        <v>981.3552929276013</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.583677114554</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O42" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P42" t="n">
-        <v>2006.546304928316</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R42" t="n">
-        <v>2095.559820663442</v>
+        <v>2017.561036400563</v>
       </c>
       <c r="S42" t="n">
-        <v>2095.559820663442</v>
+        <v>1852.173837911017</v>
       </c>
       <c r="T42" t="n">
-        <v>2092.154768685205</v>
+        <v>1652.933446628653</v>
       </c>
       <c r="U42" t="n">
-        <v>1865.247032392268</v>
+        <v>1426.025710335716</v>
       </c>
       <c r="V42" t="n">
-        <v>1630.995788917868</v>
+        <v>1191.774466861317</v>
       </c>
       <c r="W42" t="n">
-        <v>1378.481297251202</v>
+        <v>939.2599751946501</v>
       </c>
       <c r="X42" t="n">
-        <v>1171.954398656779</v>
+        <v>732.7330766002276</v>
       </c>
       <c r="Y42" t="n">
-        <v>966.2259628804296</v>
+        <v>651.2644463242424</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="D43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="E43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="F43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="G43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J43" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="K43" t="n">
-        <v>54.81798884560637</v>
+        <v>54.42692269698026</v>
       </c>
       <c r="L43" t="n">
-        <v>126.6374246114499</v>
+        <v>126.2463584628238</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9538494209552</v>
+        <v>212.5627832723291</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3591244700266</v>
+        <v>301.9680583214005</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6027700855109</v>
+        <v>369.6027700855112</v>
       </c>
       <c r="P43" t="n">
-        <v>403.9188442140101</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.9188442140101</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140101</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034413</v>
+        <v>379.3047660034415</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413882</v>
+        <v>345.5197125413883</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4263662214398</v>
+        <v>252.42636622144</v>
       </c>
       <c r="V43" t="n">
-        <v>192.7704418215879</v>
+        <v>192.770441821588</v>
       </c>
       <c r="W43" t="n">
-        <v>99.62338022933555</v>
+        <v>99.6233802293356</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03411354123097</v>
+        <v>67.03411354123098</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C44" t="n">
-        <v>975.9683832523949</v>
+        <v>975.9683832523954</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5969217943014</v>
+        <v>811.5969217943018</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4443461940975</v>
+        <v>620.4443461940978</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885873</v>
+        <v>404.8717425885874</v>
       </c>
       <c r="G44" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H44" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I44" t="n">
-        <v>50.75609222718959</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J44" t="n">
-        <v>94.30698338743885</v>
+        <v>85.46208757351808</v>
       </c>
       <c r="K44" t="n">
-        <v>281.8550725643525</v>
+        <v>273.0101767504317</v>
       </c>
       <c r="L44" t="n">
-        <v>664.6874921268588</v>
+        <v>748.9090784835435</v>
       </c>
       <c r="M44" t="n">
-        <v>996.6155919695327</v>
+        <v>1080.837178326217</v>
       </c>
       <c r="N44" t="n">
-        <v>1318.397460495536</v>
+        <v>1402.61904685222</v>
       </c>
       <c r="O44" t="n">
-        <v>1576.118602922334</v>
+        <v>1852.278405330994</v>
       </c>
       <c r="P44" t="n">
-        <v>1759.138842226241</v>
+        <v>2035.298644634901</v>
       </c>
       <c r="Q44" t="n">
-        <v>2011.338234306756</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U44" t="n">
         <v>2010.363938413307</v>
@@ -7685,13 +7685,13 @@
         <v>1874.347538805798</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.112052856839</v>
+        <v>1716.11205285684</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.339716270896</v>
+        <v>1537.339716270897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.582053806098</v>
+        <v>1342.582053806099</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>773.6503138626442</v>
+        <v>555.7974290064445</v>
       </c>
       <c r="C45" t="n">
-        <v>600.8971987844614</v>
+        <v>383.0443139282617</v>
       </c>
       <c r="D45" t="n">
-        <v>453.3088921434053</v>
+        <v>235.4560072872056</v>
       </c>
       <c r="E45" t="n">
-        <v>295.69936314626</v>
+        <v>235.4560072872056</v>
       </c>
       <c r="F45" t="n">
-        <v>150.7435731628768</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="G45" t="n">
-        <v>150.7435731628768</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H45" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I45" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J45" t="n">
-        <v>75.63185401672176</v>
+        <v>75.63185401672175</v>
       </c>
       <c r="K45" t="n">
-        <v>259.8714420406261</v>
+        <v>259.871442040626</v>
       </c>
       <c r="L45" t="n">
-        <v>568.4539116793177</v>
+        <v>568.4539116793176</v>
       </c>
       <c r="M45" t="n">
-        <v>981.3552929276015</v>
+        <v>981.3552929276013</v>
       </c>
       <c r="N45" t="n">
         <v>1420.583677114554</v>
       </c>
       <c r="O45" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P45" t="n">
-        <v>2006.546304928316</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R45" t="n">
-        <v>2095.559820663442</v>
+        <v>2017.561036400563</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.559820663442</v>
+        <v>1852.173837911017</v>
       </c>
       <c r="T45" t="n">
-        <v>2066.62167078898</v>
+        <v>1652.933446628653</v>
       </c>
       <c r="U45" t="n">
-        <v>1839.713934496043</v>
+        <v>1426.025710335716</v>
       </c>
       <c r="V45" t="n">
-        <v>1605.462691021643</v>
+        <v>1387.609806165444</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.948199354977</v>
+        <v>1135.095314498777</v>
       </c>
       <c r="X45" t="n">
-        <v>1146.421300760554</v>
+        <v>928.5684159043545</v>
       </c>
       <c r="Y45" t="n">
-        <v>940.6928649842047</v>
+        <v>722.839980128005</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="C46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="D46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="E46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="F46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="G46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J46" t="n">
-        <v>42.30226256189492</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="K46" t="n">
-        <v>54.81798884560637</v>
+        <v>54.42692269698026</v>
       </c>
       <c r="L46" t="n">
-        <v>126.6374246114499</v>
+        <v>126.2463584628238</v>
       </c>
       <c r="M46" t="n">
-        <v>212.9538494209552</v>
+        <v>212.5627832723291</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3591244700266</v>
+        <v>301.9680583214005</v>
       </c>
       <c r="O46" t="n">
-        <v>369.6027700855109</v>
+        <v>369.2117039368848</v>
       </c>
       <c r="P46" t="n">
-        <v>403.9188442140101</v>
+        <v>403.5277780653839</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.9188442140101</v>
+        <v>403.5277780653839</v>
       </c>
       <c r="R46" t="n">
         <v>403.9188442140101</v>
@@ -7843,13 +7843,13 @@
         <v>192.7704418215879</v>
       </c>
       <c r="W46" t="n">
-        <v>99.62338022933555</v>
+        <v>99.62338022933554</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03411354123097</v>
+        <v>67.03411354123095</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789564</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8702,7 +8702,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132552</v>
+        <v>396.0321885132551</v>
       </c>
       <c r="P11" t="n">
         <v>334.6706564983419</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789564</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -8945,7 +8945,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750707</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>201.3599731896437</v>
+        <v>117.4929696592421</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789564</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9243,13 +9243,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.94325252954214</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365454</v>
       </c>
       <c r="N18" t="n">
         <v>480.9863851290694</v>
@@ -9258,10 +9258,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>237.6754614096483</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9410,7 +9410,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884632</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9477,16 +9477,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>165.8761736554884</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365454</v>
       </c>
       <c r="N21" t="n">
         <v>480.9863851290694</v>
@@ -9495,7 +9495,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.87553675330057</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9714,10 +9714,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750707</v>
       </c>
       <c r="K24" t="n">
-        <v>88.94325252954214</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,13 +9726,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>269.5322933162636</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>72.06111244390918</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>305.2635635195969</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -10665,10 +10665,10 @@
         <v>97.07340644750707</v>
       </c>
       <c r="K36" t="n">
-        <v>88.94325252954214</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>349.9713308315575</v>
+        <v>383.4981626349875</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10677,13 +10677,13 @@
         <v>489.0151565254771</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>72.06111244390918</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,28 +10899,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>88.94325252954214</v>
       </c>
       <c r="L39" t="n">
-        <v>349.9713308315575</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.0151565254771</v>
+        <v>489.0151565254772</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>221.9246396203213</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>470.5004376370679</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.4647475650561</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11388,13 +11388,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>381.6011803675709</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.4647475650561</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.5821807471161</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478051</v>
+        <v>11.38796853781792</v>
       </c>
       <c r="F11" t="n">
-        <v>285.2713114730585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>126.68412067844</v>
+        <v>292.3061370030429</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.92019570772386</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.85443390360335</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.128284212117144</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.12828421211664</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.6938579839127</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714604</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.5821807471161</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>269.0208620802188</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.3061370030429</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.92019570772385</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.71022646615937</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5106695150371</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>228.5075649930723</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.8390471236871</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.6645197437535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.128284212117507</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.128284212116668</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1076587.216514043</v>
+        <v>1076587.216514044</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>324862.5511022962</v>
       </c>
       <c r="C2" t="n">
-        <v>324862.5511022962</v>
+        <v>324862.5511022963</v>
       </c>
       <c r="D2" t="n">
         <v>324862.5511022963</v>
       </c>
       <c r="E2" t="n">
-        <v>279415.9047480376</v>
+        <v>279415.9047480378</v>
       </c>
       <c r="F2" t="n">
-        <v>279415.9047480376</v>
+        <v>279415.9047480375</v>
       </c>
       <c r="G2" t="n">
         <v>325567.7634459745</v>
       </c>
       <c r="H2" t="n">
-        <v>325567.7634459744</v>
+        <v>325567.7634459745</v>
       </c>
       <c r="I2" t="n">
         <v>325567.7634459744</v>
       </c>
       <c r="J2" t="n">
+        <v>325567.7634459742</v>
+      </c>
+      <c r="K2" t="n">
         <v>325567.7634459746</v>
       </c>
-      <c r="K2" t="n">
-        <v>325567.7634459741</v>
-      </c>
       <c r="L2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459742</v>
       </c>
       <c r="M2" t="n">
-        <v>325567.7634459747</v>
+        <v>325567.7634459749</v>
       </c>
       <c r="N2" t="n">
-        <v>325567.7634459747</v>
+        <v>325567.7634459749</v>
       </c>
       <c r="O2" t="n">
-        <v>325567.7634459747</v>
+        <v>325567.7634459746</v>
       </c>
       <c r="P2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459746</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747254</v>
+        <v>80988.9363574725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.9363574725</v>
+        <v>80988.93635747257</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.3997761862</v>
+        <v>97387.39977618615</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852328</v>
+        <v>32864.76537852321</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,22 +26430,22 @@
         <v>286364.5436229132</v>
       </c>
       <c r="G4" t="n">
+        <v>351958.9825329303</v>
+      </c>
+      <c r="H4" t="n">
         <v>351958.9825329302</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>351958.9825329303</v>
-      </c>
-      <c r="I4" t="n">
-        <v>351958.9825329302</v>
       </c>
       <c r="J4" t="n">
         <v>350098.1444517556</v>
       </c>
       <c r="K4" t="n">
+        <v>350098.1444517556</v>
+      </c>
+      <c r="L4" t="n">
         <v>350098.1444517557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>350098.1444517556</v>
       </c>
       <c r="M4" t="n">
         <v>351744.9734616746</v>
@@ -26454,10 +26454,10 @@
         <v>351744.9734616746</v>
       </c>
       <c r="O4" t="n">
+        <v>349353.4290257165</v>
+      </c>
+      <c r="P4" t="n">
         <v>349353.4290257166</v>
-      </c>
-      <c r="P4" t="n">
-        <v>349353.4290257165</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>39020.12398743367</v>
       </c>
       <c r="F5" t="n">
-        <v>39020.12398743366</v>
+        <v>39020.12398743367</v>
       </c>
       <c r="G5" t="n">
         <v>47530.94760072911</v>
@@ -26506,10 +26506,10 @@
         <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444184</v>
+        <v>51004.33436444183</v>
       </c>
       <c r="P5" t="n">
-        <v>51004.33436444184</v>
+        <v>51004.33436444183</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130775.6741844715</v>
+        <v>-130780.0817616196</v>
       </c>
       <c r="C6" t="n">
-        <v>-130775.6741844715</v>
+        <v>-130780.0817616194</v>
       </c>
       <c r="D6" t="n">
-        <v>-130775.6741844715</v>
+        <v>-130780.0817616194</v>
       </c>
       <c r="E6" t="n">
-        <v>-375955.9690653009</v>
+        <v>-376244.4181821628</v>
       </c>
       <c r="F6" t="n">
-        <v>-45968.76286230916</v>
+        <v>-46257.21197917145</v>
       </c>
       <c r="G6" t="n">
         <v>-154911.1030451574</v>
       </c>
       <c r="H6" t="n">
-        <v>-73922.16668768499</v>
+        <v>-73922.16668768482</v>
       </c>
       <c r="I6" t="n">
         <v>-73922.16668768493</v>
       </c>
       <c r="J6" t="n">
-        <v>-193233.2369423899</v>
+        <v>-193233.2369423903</v>
       </c>
       <c r="K6" t="n">
-        <v>-83207.90613599808</v>
+        <v>-83207.90613599744</v>
       </c>
       <c r="L6" t="n">
-        <v>-164196.8424934701</v>
+        <v>-164196.8424934706</v>
       </c>
       <c r="M6" t="n">
-        <v>-171365.4211424484</v>
+        <v>-171365.4211424482</v>
       </c>
       <c r="N6" t="n">
-        <v>-73978.02136626215</v>
+        <v>-73978.02136626204</v>
       </c>
       <c r="O6" t="n">
         <v>-107654.765322707</v>
@@ -26710,10 +26710,10 @@
         <v>142.1115946190626</v>
       </c>
       <c r="K2" t="n">
+        <v>142.1115946190626</v>
+      </c>
+      <c r="L2" t="n">
         <v>142.1115946190627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>142.1115946190626</v>
       </c>
       <c r="M2" t="n">
         <v>220.6622177847246</v>
@@ -26823,13 +26823,13 @@
         <v>434.1641217404566</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658604</v>
+        <v>523.8899551658602</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8899551658604</v>
+        <v>523.8899551658602</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="M2" t="n">
-        <v>78.55062316566205</v>
+        <v>78.55062316566199</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858303</v>
+        <v>14.09019229858302</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540383</v>
+        <v>89.72583342540355</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>122.0225520074823</v>
@@ -28178,7 +28178,7 @@
         <v>122.0225520074823</v>
       </c>
       <c r="F12" t="n">
-        <v>84.37337038447333</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W12" t="n">
+        <v>84.37337038447322</v>
+      </c>
+      <c r="X12" t="n">
         <v>122.0225520074823</v>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28418,13 +28418,13 @@
         <v>122.0225520074823</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>70.50128277853189</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>84.37337038447365</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="V15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -28661,7 +28661,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,22 +28691,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>12.2625475094049</v>
       </c>
       <c r="T18" t="n">
-        <v>21.38703457322106</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W18" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>159.5359974224836</v>
       </c>
       <c r="I19" t="n">
         <v>146.661991856789</v>
@@ -28773,7 +28773,7 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T19" t="n">
-        <v>187.0335672626146</v>
+        <v>27.49756984013095</v>
       </c>
       <c r="U19" t="n">
         <v>223.2587224543229</v>
@@ -28880,16 +28880,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>223.2587224543229</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>7.503954663566645</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.5510694744867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29007,7 +29007,7 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S22" t="n">
-        <v>22.48377072535686</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T22" t="n">
         <v>223.2587224543229</v>
@@ -29016,7 +29016,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2587224543229</v>
+        <v>27.49756984013101</v>
       </c>
       <c r="W22" t="n">
         <v>223.2587224543229</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,16 +29123,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>96.86082546001117</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.81238500081962</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024862</v>
+        <v>36.63445411488016</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.2479873695406</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>60.00061294779459</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7806395874728</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>22.48377072535686</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
         <v>223.2587224543229</v>
@@ -29253,7 +29253,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V25" t="n">
-        <v>223.2587224543229</v>
+        <v>190.2782094276038</v>
       </c>
       <c r="W25" t="n">
         <v>223.2587224543229</v>
@@ -29320,7 +29320,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="R26" t="n">
-        <v>142.1115946190631</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S26" t="n">
         <v>142.1115946190626</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7440529821119</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.01877728750878</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>125.8677136083945</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29454,16 +29454,16 @@
         <v>142.1115946190626</v>
       </c>
       <c r="J28" t="n">
-        <v>83.99523789666995</v>
+        <v>72.1550759516121</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.84016194505779</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="N28" t="n">
         <v>142.1115946190626</v>
@@ -29472,7 +29472,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>142.1115946190626</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="M29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190631</v>
       </c>
       <c r="N29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="P29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F30" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>60.56850399015152</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>125.4613021889653</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.1115946190627</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J31" t="n">
-        <v>72.1550759516121</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K31" t="n">
-        <v>93.95114361632452</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>83.99523789667052</v>
       </c>
       <c r="N31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O31" t="n">
-        <v>142.1115946190627</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.00061294779459</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190619</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>125.8677136083944</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7440529821119</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.01877728750878</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>83.9952378966685</v>
       </c>
       <c r="L34" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>83.99523789666986</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="P34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190627</v>
       </c>
     </row>
     <row r="35">
@@ -30004,13 +30004,13 @@
         <v>220.6622177847246</v>
       </c>
       <c r="I35" t="n">
-        <v>216.7334384969415</v>
+        <v>184.9427477152062</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>31.79069078173529</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30071,16 +30071,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>91.13253063301519</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I36" t="n">
         <v>76.81238500081962</v>
@@ -30113,16 +30113,16 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>220.6622177847246</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>52.59462329822111</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="I38" t="n">
-        <v>216.7334384969415</v>
+        <v>184.9427477152062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,13 +30268,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.8046764598881</v>
+        <v>140.5953672416239</v>
       </c>
       <c r="S38" t="n">
         <v>193.8769859110857</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U38" t="n">
         <v>220.6622177847246</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>26.1864284845187</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.96536021557264</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7333265046506</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>220.6622177847246</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30438,13 +30438,13 @@
         <v>220.6622177847246</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622177847246</v>
+        <v>37.88358851852425</v>
       </c>
       <c r="W40" t="n">
         <v>220.6622177847246</v>
       </c>
       <c r="X40" t="n">
-        <v>37.88358851852428</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30478,34 +30478,34 @@
         <v>193.8769859110857</v>
       </c>
       <c r="I41" t="n">
+        <v>184.9427477152062</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>193.8769859110857</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>188.6090462338665</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>99.18520472618178</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.8769859110857</v>
+        <v>113.3873825992796</v>
       </c>
       <c r="S41" t="n">
         <v>193.8769859110857</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>79.53229962114466</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.0172074453607</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.4005828262629</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.3950163117438734</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30715,34 +30715,34 @@
         <v>193.8769859110857</v>
       </c>
       <c r="I44" t="n">
+        <v>184.9427477152062</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>193.191752373258</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>193.8769859110857</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>99.18520472618184</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.8769859110857</v>
+        <v>108.8046764598881</v>
       </c>
       <c r="S44" t="n">
         <v>193.8769859110857</v>
@@ -30782,16 +30782,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>87.63860383805147</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
         <v>76.81238500081962</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>168.5992189938233</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.4787078024273</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30900,7 +30900,7 @@
         <v>60.00061294779459</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7806395874728</v>
+        <v>163.1756558992163</v>
       </c>
       <c r="S46" t="n">
         <v>193.8769859110857</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99079915176666</v>
+        <v>43.99079915176693</v>
       </c>
       <c r="K11" t="n">
         <v>189.4425143201148</v>
@@ -35422,7 +35422,7 @@
         <v>325.032190430306</v>
       </c>
       <c r="O11" t="n">
-        <v>260.3243862896957</v>
+        <v>260.3243862896956</v>
       </c>
       <c r="P11" t="n">
         <v>184.8689285898049</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.99079915176666</v>
+        <v>43.99079915176693</v>
       </c>
       <c r="K14" t="n">
         <v>189.4425143201148</v>
@@ -35665,7 +35665,7 @@
         <v>184.8689285898049</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.86987477630311</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.06127030651811</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>186.1005939635397</v>
@@ -35735,7 +35735,7 @@
         <v>417.0721022709937</v>
       </c>
       <c r="N15" t="n">
-        <v>146.5089384046232</v>
+        <v>62.64193487422159</v>
       </c>
       <c r="O15" t="n">
         <v>337.5556996038895</v>
@@ -35744,7 +35744,7 @@
         <v>254.3257426322341</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587016</v>
+        <v>49.8674760558702</v>
       </c>
       <c r="K16" t="n">
-        <v>134.6646997688069</v>
+        <v>134.664699768807</v>
       </c>
       <c r="L16" t="n">
-        <v>194.5674366194454</v>
+        <v>194.5674366194455</v>
       </c>
       <c r="M16" t="n">
-        <v>209.2108598958714</v>
+        <v>209.2108598958715</v>
       </c>
       <c r="N16" t="n">
-        <v>212.3309106429079</v>
+        <v>212.330910642908</v>
       </c>
       <c r="O16" t="n">
-        <v>189.9454263665573</v>
+        <v>189.9454263665574</v>
       </c>
       <c r="P16" t="n">
         <v>156.6852531473804</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968767</v>
+        <v>62.02193905968771</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.99079915176666</v>
+        <v>43.99079915176693</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201148</v>
@@ -35963,13 +35963,13 @@
         <v>34.06127030651811</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L18" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M18" t="n">
-        <v>417.0721022709937</v>
+        <v>19.51741649464828</v>
       </c>
       <c r="N18" t="n">
         <v>426.1353503440489</v>
@@ -35978,10 +35978,10 @@
         <v>337.5556996038895</v>
       </c>
       <c r="P18" t="n">
-        <v>160.7999246563478</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N20" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303057</v>
       </c>
       <c r="O20" t="n">
         <v>260.3243862896957</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.06127030651811</v>
       </c>
       <c r="K21" t="n">
-        <v>76.93292112594629</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L21" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M21" t="n">
-        <v>417.0721022709937</v>
+        <v>19.51741649464828</v>
       </c>
       <c r="N21" t="n">
         <v>426.1353503440489</v>
@@ -36215,7 +36215,7 @@
         <v>337.5556996038895</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q21" t="n">
         <v>117.9282738369195</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.06127030651811</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L24" t="n">
         <v>311.6994642815067</v>
@@ -36446,13 +36446,13 @@
         <v>417.0721022709937</v>
       </c>
       <c r="N24" t="n">
-        <v>214.6812585312431</v>
+        <v>426.1353503440489</v>
       </c>
       <c r="O24" t="n">
-        <v>337.5556996038895</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>254.3257426322341</v>
+        <v>228.3880267662963</v>
       </c>
       <c r="Q24" t="n">
         <v>117.9282738369195</v>
@@ -36607,7 +36607,7 @@
         <v>467.1437850493686</v>
       </c>
       <c r="O26" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P26" t="n">
         <v>326.9805232088675</v>
@@ -36616,7 +36616,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917496</v>
+        <v>33.30691815917447</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.84016194505784</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>12.64214776132469</v>
       </c>
       <c r="L28" t="n">
-        <v>72.54488461196317</v>
+        <v>84.38504655702096</v>
       </c>
       <c r="M28" t="n">
-        <v>87.18830788838918</v>
+        <v>229.2999025074518</v>
       </c>
       <c r="N28" t="n">
         <v>232.4199532544882</v>
@@ -36768,7 +36768,7 @@
         <v>210.0344689781377</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589607</v>
+        <v>34.66270113989812</v>
       </c>
       <c r="Q28" t="n">
         <v>82.11098167126801</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1023937708296</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K29" t="n">
         <v>331.5541089391774</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M29" t="n">
-        <v>477.3925035510564</v>
+        <v>477.3925035510568</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O29" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P29" t="n">
-        <v>326.9805232088676</v>
+        <v>326.9805232088675</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.9814693953658</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30691815917453</v>
+        <v>33.30691815917444</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.95651866745047</v>
       </c>
       <c r="K31" t="n">
-        <v>106.5932913776492</v>
+        <v>12.64214776132469</v>
       </c>
       <c r="L31" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M31" t="n">
-        <v>87.18830788838918</v>
+        <v>171.1835457850597</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4199532544883</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7742957589608</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.11098167126798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1023937708295</v>
+        <v>186.1023937708296</v>
       </c>
       <c r="K32" t="n">
         <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6258035923814</v>
+        <v>429.6258035923822</v>
       </c>
       <c r="M32" t="n">
-        <v>477.3925035510563</v>
+        <v>477.3925035510564</v>
       </c>
       <c r="N32" t="n">
         <v>467.1437850493686</v>
@@ -37084,13 +37084,13 @@
         <v>402.4359809087584</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9805232088675</v>
+        <v>326.9805232088676</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953657</v>
+        <v>202.9814693953658</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30691815917447</v>
+        <v>33.30691815917453</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.9565186674505</v>
+        <v>69.95651866745055</v>
       </c>
       <c r="K34" t="n">
-        <v>12.64214776132469</v>
+        <v>96.63738565799319</v>
       </c>
       <c r="L34" t="n">
-        <v>214.6564792310258</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M34" t="n">
         <v>87.18830788838918</v>
@@ -37239,13 +37239,13 @@
         <v>90.30835863542566</v>
       </c>
       <c r="O34" t="n">
-        <v>151.9181122557449</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7742957589607</v>
+        <v>176.7742957589608</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126801</v>
+        <v>82.11098167126806</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.7906907817353</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>43.99079915176693</v>
       </c>
       <c r="K35" t="n">
-        <v>189.4425143201148</v>
+        <v>221.2332051018501</v>
       </c>
       <c r="L35" t="n">
         <v>287.5142089733195</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L36" t="n">
-        <v>275.9968359974667</v>
+        <v>309.5236678008967</v>
       </c>
       <c r="M36" t="n">
         <v>417.0721022709937</v>
@@ -37397,13 +37397,13 @@
         <v>434.1641217404566</v>
       </c>
       <c r="O36" t="n">
-        <v>337.5556996038895</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>254.3257426322341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.7906907817353</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>43.99079915176693</v>
@@ -37564,7 +37564,7 @@
         <v>60.86987477630311</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>31.79069078173574</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.06127030651811</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>275.9968359974667</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M39" t="n">
         <v>417.0721022709937</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O39" t="n">
-        <v>337.5556996038895</v>
+        <v>149.8635271764121</v>
       </c>
       <c r="P39" t="n">
         <v>254.3257426322341</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.934238195879555</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>43.99079915176693</v>
       </c>
       <c r="K41" t="n">
-        <v>189.4425143201148</v>
+        <v>383.3195002312005</v>
       </c>
       <c r="L41" t="n">
         <v>287.5142089733195</v>
       </c>
       <c r="M41" t="n">
-        <v>335.2809089319937</v>
+        <v>523.8899551658602</v>
       </c>
       <c r="N41" t="n">
         <v>325.032190430306</v>
       </c>
       <c r="O41" t="n">
-        <v>359.5095910158775</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P41" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.7468606873888</v>
+        <v>60.86987477630311</v>
       </c>
       <c r="R41" t="n">
-        <v>85.07230945119758</v>
+        <v>4.582706139391497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>417.0721022709937</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6650345322752</v>
+        <v>415.6494028520474</v>
       </c>
       <c r="O42" t="n">
         <v>337.5556996038895</v>
@@ -37877,7 +37877,7 @@
         <v>254.3257426322341</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.91264215669248</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.395016311743523</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>90.30835863542566</v>
       </c>
       <c r="O43" t="n">
-        <v>67.92287435907508</v>
+        <v>68.31789067081895</v>
       </c>
       <c r="P43" t="n">
         <v>34.66270113989812</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.934238195879555</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>43.99079915176693</v>
@@ -38020,7 +38020,7 @@
         <v>189.4425143201148</v>
       </c>
       <c r="L44" t="n">
-        <v>386.6994136995013</v>
+        <v>480.7059613465775</v>
       </c>
       <c r="M44" t="n">
         <v>335.2809089319937</v>
@@ -38029,16 +38029,16 @@
         <v>325.032190430306</v>
       </c>
       <c r="O44" t="n">
-        <v>260.3243862896957</v>
+        <v>454.2013722007815</v>
       </c>
       <c r="P44" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.7468606873888</v>
+        <v>60.86987477630311</v>
       </c>
       <c r="R44" t="n">
-        <v>85.07230945119758</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>443.6650345322752</v>
       </c>
       <c r="O45" t="n">
-        <v>337.5556996038895</v>
+        <v>309.5400679236617</v>
       </c>
       <c r="P45" t="n">
         <v>254.3257426322341</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.91264215669248</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.395016311743523</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.3950163117435589</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
